--- a/Discharge/Station4_2021-07-27_1015.xlsx
+++ b/Discharge/Station4_2021-07-27_1015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{700A382F-8780-48A7-BD3B-30C10098292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3485BEF6-796D-41B1-8282-92E0CEE93B95}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{700A382F-8780-48A7-BD3B-30C10098292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E81C4935-17B1-46DC-B4E5-1D1587206868}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14640" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -369,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +402,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -415,8 +433,24 @@
         <f>SUM(E2:E20)</f>
         <v>1.4605999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G18)</f>
+        <v>6.1949999999999998E-2</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>6.1949999999999998E-2</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>1.4605999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7</v>
       </c>
@@ -434,8 +468,12 @@
         <f t="shared" ref="E3:E4" si="0">(D3-D2)*(B3/100)*C3</f>
         <v>9.1199999999999994E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>15</v>
       </c>
@@ -446,15 +484,19 @@
         <v>0.21</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D12" si="1">(A4/100+(A5/100-A4/100)/2)</f>
+        <f t="shared" ref="D4:D8" si="1">(A4/100+(A5/100-A4/100)/2)</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>8.1899999999999974E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" ref="G4:G18" si="2">(D4-D3)*B4/100</f>
+        <v>3.899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>20</v>
       </c>
@@ -472,8 +514,12 @@
         <f>(D5-D4)*(B5/100)*C5</f>
         <v>5.4000000000000012E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>25</v>
       </c>
@@ -488,11 +534,15 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E12" si="2">(D6-D5)*(B6/100)*C6</f>
+        <f t="shared" ref="E6:E8" si="3">(D6-D5)*(B6/100)*C6</f>
         <v>9.1000000000000044E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>30</v>
       </c>
@@ -507,11 +557,15 @@
         <v>0.32499999999999996</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5199999999999981E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999949E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>35</v>
       </c>
@@ -526,11 +580,15 @@
         <v>0.375</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8000000000000015E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40</v>
       </c>
@@ -541,15 +599,19 @@
         <v>0.38</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9" si="3">(A9/100+(A10/100-A9/100)/2)</f>
+        <f t="shared" ref="D9" si="4">(A9/100+(A10/100-A9/100)/2)</f>
         <v>0.42500000000000004</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9" si="4">(D9-D8)*(B9/100)*C9</f>
+        <f t="shared" ref="E9" si="5">(D9-D8)*(B9/100)*C9</f>
         <v>1.5200000000000014E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>45</v>
       </c>
@@ -560,15 +622,19 @@
         <v>0.37</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D17" si="5">(A10/100+(A11/100-A10/100)/2)</f>
+        <f t="shared" ref="D10:D17" si="6">(A10/100+(A11/100-A10/100)/2)</f>
         <v>0.47499999999999998</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E17" si="6">(D10-D9)*(B10/100)*C10</f>
+        <f t="shared" ref="E10:E17" si="7">(D10-D9)*(B10/100)*C10</f>
         <v>1.6649999999999976E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999936E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50</v>
       </c>
@@ -579,15 +645,19 @@
         <v>0.32</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7600000000000016E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000049E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>55</v>
       </c>
@@ -598,15 +668,19 @@
         <v>0.21</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2599999999999981E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>60</v>
       </c>
@@ -617,15 +691,19 @@
         <v>0.16</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000089E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>65</v>
       </c>
@@ -636,15 +714,19 @@
         <v>0.1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000042E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>4.500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>70</v>
       </c>
@@ -655,15 +737,19 @@
         <v>0.09</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5999999999999953E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999949E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>75</v>
       </c>
@@ -674,15 +760,19 @@
         <v>0.04</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3000000000000012E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>3.2500000000000029E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>83</v>
       </c>
@@ -693,11 +783,21 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
